--- a/KZN_south_africa/param_files/calibration_code_results/Archive/2021_09_22/Epi_model_parameters.xlsx
+++ b/KZN_south_africa/param_files/calibration_code_results/Archive/2021_09_22/Epi_model_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/calibration_code_results/2021_09_22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/KZN_south_africa/param_files/calibration_code_results/Archive/2021_09_22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F9EE4-C63B-5F4D-9417-C87B7424B682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1941E81B-D4C7-9742-AC41-727D1F32249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model_matched_parameters" sheetId="1" r:id="rId1"/>
@@ -2748,13 +2748,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L221" sqref="L221"/>
+      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2834,7 +2835,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>342</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>343</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>342</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>343</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>342</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>343</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>342</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>343</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>342</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>343</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>342</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>343</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>342</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>343</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>342</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>343</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>344</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>345</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>344</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>345</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>344</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>345</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>344</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>345</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>344</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>345</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>344</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>345</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>344</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>345</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>344</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>345</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>346</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>116</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>116</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>24</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>26</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>92</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>93</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>100</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>101</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>108</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
         <v>109</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20" t="s">
         <v>65</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>67</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20" t="s">
         <v>75</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>76</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>83</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>85</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>36</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>40</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>48</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>49</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>57</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20" t="s">
         <v>58</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20" t="s">
         <v>94</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>95</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>102</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>103</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>110</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
         <v>111</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>68</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>70</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20" t="s">
         <v>77</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
         <v>78</v>
       </c>
@@ -6892,7 +6893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>86</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>87</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20" t="s">
         <v>41</v>
       </c>
@@ -7030,7 +7031,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
         <v>43</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>50</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>52</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>59</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
         <v>60</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20" t="s">
         <v>96</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>97</v>
       </c>
@@ -7348,7 +7349,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>104</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>105</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>112</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>113</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>71</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>72</v>
       </c>
@@ -7620,7 +7621,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>79</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>80</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
         <v>88</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
         <v>89</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>44</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>45</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>53</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" ht="80" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>54</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>61</v>
       </c>
@@ -8030,7 +8031,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>62</v>
       </c>
@@ -8076,7 +8077,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>98</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>99</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>106</v>
       </c>
@@ -8208,7 +8209,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>107</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>114</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>115</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>73</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>74</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>81</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>82</v>
       </c>
@@ -8528,7 +8529,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>90</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>91</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>46</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="20" t="s">
         <v>47</v>
       </c>
@@ -8712,7 +8713,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>55</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>56</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
         <v>63</v>
       </c>
@@ -8850,7 +8851,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="20" t="s">
         <v>64</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
         <v>134</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>137</v>
       </c>
@@ -8982,7 +8983,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="20" t="s">
         <v>144</v>
       </c>
@@ -9025,7 +9026,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20" t="s">
         <v>145</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20" t="s">
         <v>152</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
         <v>153</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>160</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
         <v>161</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
         <v>168</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
         <v>169</v>
       </c>
@@ -9326,7 +9327,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
         <v>176</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
         <v>177</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
         <v>184</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
         <v>185</v>
       </c>
@@ -9498,7 +9499,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="20" t="s">
         <v>192</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="20" t="s">
         <v>193</v>
       </c>
@@ -9584,7 +9585,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="20" t="s">
         <v>138</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="20" t="s">
         <v>139</v>
       </c>
@@ -9670,7 +9671,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="20" t="s">
         <v>146</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="20" t="s">
         <v>147</v>
       </c>
@@ -9756,7 +9757,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="20" t="s">
         <v>154</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="20" t="s">
         <v>155</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="20" t="s">
         <v>162</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="20" t="s">
         <v>163</v>
       </c>
@@ -9928,7 +9929,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="20" t="s">
         <v>170</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="20" t="s">
         <v>171</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="96" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>178</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="96" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="20" t="s">
         <v>179</v>
       </c>
@@ -10100,7 +10101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="20" t="s">
         <v>186</v>
       </c>
@@ -10143,7 +10144,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="20" t="s">
         <v>187</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="20" t="s">
         <v>194</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="168" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="20" t="s">
         <v>195</v>
       </c>
@@ -10272,7 +10273,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="20" t="s">
         <v>140</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="20" t="s">
         <v>141</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="20" t="s">
         <v>148</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="27" t="s">
         <v>149</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="20" t="s">
         <v>156</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="20" t="s">
         <v>157</v>
       </c>
@@ -10530,7 +10531,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="20" t="s">
         <v>164</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="20" t="s">
         <v>165</v>
       </c>
@@ -10616,7 +10617,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="20" t="s">
         <v>172</v>
       </c>
@@ -10659,7 +10660,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="178" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="20" t="s">
         <v>173</v>
       </c>
@@ -10702,7 +10703,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="20" t="s">
         <v>180</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="20" t="s">
         <v>181</v>
       </c>
@@ -10788,7 +10789,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="20" t="s">
         <v>188</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="182" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="20" t="s">
         <v>189</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="20" t="s">
         <v>196</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="20" t="s">
         <v>197</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="20" t="s">
         <v>142</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="20" t="s">
         <v>143</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="20" t="s">
         <v>150</v>
       </c>
@@ -11089,7 +11090,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="20" t="s">
         <v>151</v>
       </c>
@@ -11132,7 +11133,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="20" t="s">
         <v>158</v>
       </c>
@@ -11175,7 +11176,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="20" t="s">
         <v>159</v>
       </c>
@@ -11218,7 +11219,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="20" t="s">
         <v>166</v>
       </c>
@@ -11261,7 +11262,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="20" t="s">
         <v>167</v>
       </c>
@@ -11304,7 +11305,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="20" t="s">
         <v>174</v>
       </c>
@@ -11347,7 +11348,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="20" t="s">
         <v>175</v>
       </c>
@@ -11390,7 +11391,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="20" t="s">
         <v>182</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="J195" s="9" t="str">
-        <f t="shared" ref="J195:J226" si="13">CONCATENATE(C195, "_", E195, IF(E195&lt;&gt;"",",",""), F195, IF(F195&lt;&gt;"",",",""),  G195, IF(G195&lt;&gt;"",",",""),  H195, IF(I195&lt;&gt;"","(",""), I195, IF(I195&lt;&gt;"",")",""))</f>
+        <f t="shared" ref="J195:J224" si="13">CONCATENATE(C195, "_", E195, IF(E195&lt;&gt;"",",",""), F195, IF(F195&lt;&gt;"",",",""),  G195, IF(G195&lt;&gt;"",",",""),  H195, IF(I195&lt;&gt;"","(",""), I195, IF(I195&lt;&gt;"",")",""))</f>
         <v>mu_6,4,1</v>
       </c>
       <c r="K195" s="9" t="s">
@@ -11433,7 +11434,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="20" t="s">
         <v>183</v>
       </c>
@@ -11476,7 +11477,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="20" t="s">
         <v>190</v>
       </c>
@@ -11519,7 +11520,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="20" t="s">
         <v>191</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="20" t="s">
         <v>198</v>
       </c>
@@ -11605,7 +11606,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="20" t="s">
         <v>199</v>
       </c>
@@ -11648,7 +11649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="31" t="s">
         <v>306</v>
       </c>
@@ -11677,7 +11678,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="20" t="s">
         <v>27</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="20" t="s">
         <v>30</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="20" t="s">
         <v>31</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="20" t="s">
         <v>32</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="20" t="s">
         <v>120</v>
       </c>
@@ -11862,7 +11863,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="20" t="s">
         <v>124</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="20" t="s">
         <v>125</v>
       </c>
@@ -11930,7 +11931,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="20" t="s">
         <v>126</v>
       </c>
@@ -11965,7 +11966,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="128" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="51" t="s">
         <v>592</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="22" t="s">
         <v>232</v>
       </c>
@@ -12035,7 +12036,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="52" t="s">
         <v>594</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="154" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:17" ht="154" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="54" t="s">
         <v>604</v>
       </c>
@@ -12252,7 +12253,7 @@
       </c>
       <c r="Q217" s="37"/>
     </row>
-    <row r="218" spans="1:17" ht="154" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:17" ht="154" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="54" t="s">
         <v>605</v>
       </c>
@@ -12286,7 +12287,7 @@
       </c>
       <c r="Q218" s="37"/>
     </row>
-    <row r="219" spans="1:17" ht="154" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:17" ht="154" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="54" t="s">
         <v>606</v>
       </c>
@@ -12320,7 +12321,7 @@
       </c>
       <c r="Q219" s="37"/>
     </row>
-    <row r="220" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="54" t="s">
         <v>607</v>
       </c>
@@ -12354,7 +12355,7 @@
       </c>
       <c r="Q220" s="37"/>
     </row>
-    <row r="221" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="20" t="s">
         <v>20</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="20" t="s">
         <v>23</v>
       </c>
@@ -12426,7 +12427,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="56" t="s">
         <v>614</v>
       </c>
@@ -12491,6 +12492,43 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q224" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="beta_1"/>
+        <filter val="beta_2"/>
+        <filter val="eta_12,1(1)"/>
+        <filter val="eta_12,1(2)"/>
+        <filter val="eta_12,1(3)"/>
+        <filter val="eta_12,2(1)"/>
+        <filter val="eta_12,2(2)"/>
+        <filter val="eta_12,2(3)"/>
+        <filter val="eta_23,1(1)"/>
+        <filter val="eta_23,1(2)"/>
+        <filter val="eta_23,1(3)"/>
+        <filter val="eta_23,2(1)"/>
+        <filter val="eta_23,2(2)"/>
+        <filter val="eta_23,2(3)"/>
+        <filter val="eta_24,1(1)"/>
+        <filter val="eta_24,1(2)"/>
+        <filter val="eta_24,1(3)"/>
+        <filter val="eta_24,2(1)"/>
+        <filter val="eta_24,2(2)"/>
+        <filter val="eta_24,2(3)"/>
+        <filter val="eta_34,1(1)"/>
+        <filter val="eta_34,1(2)"/>
+        <filter val="eta_34,1(3)"/>
+        <filter val="eta_34,2(1)"/>
+        <filter val="eta_34,2(2)"/>
+        <filter val="eta_34,2(3)"/>
+        <filter val="theta_1,"/>
+        <filter val="theta_2,"/>
+        <filter val="theta_3,"/>
+        <filter val="theta_4,"/>
+        <filter val="zeta_"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q224">
     <sortCondition ref="C2:C224"/>
   </sortState>
